--- a/Datafolder/Employee.xlsx
+++ b/Datafolder/Employee.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Emp id</t>
   </si>
@@ -23,16 +23,13 @@
     <t>Job</t>
   </si>
   <si>
-    <t>101</t>
+    <t>102</t>
   </si>
   <si>
     <t>Kamlesh</t>
   </si>
   <si>
     <t>QA</t>
-  </si>
-  <si>
-    <t>102</t>
   </si>
   <si>
     <t>Ananad</t>
@@ -122,24 +119,24 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
